--- a/Шульгин/helpers/09.04 ИС УРФУ (1).xlsx
+++ b/Шульгин/helpers/09.04 ИС УРФУ (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26440" windowHeight="10980" tabRatio="212"/>
+    <workbookView windowWidth="27060" windowHeight="8820" tabRatio="212"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2313,10 +2313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2329,67 +2329,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2416,9 +2355,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,8 +2415,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2453,9 +2447,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2468,11 +2461,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2485,7 +2485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,7 +2509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,13 +2551,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,31 +2599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,31 +2641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,13 +2653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,49 +2665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,6 +2676,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2697,58 +2721,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2770,154 +2744,180 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3247,8 +3247,8 @@
   <sheetPr/>
   <dimension ref="A1:C771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="F637" sqref="F637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
